--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Trem2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H2">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I2">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J2">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>77.6907767939465</v>
+        <v>0.6637555000000001</v>
       </c>
       <c r="N2">
-        <v>77.6907767939465</v>
+        <v>1.327511</v>
       </c>
       <c r="O2">
-        <v>0.4359883160106036</v>
+        <v>0.003358297516997089</v>
       </c>
       <c r="P2">
-        <v>0.4359883160106036</v>
+        <v>0.002241374078332034</v>
       </c>
       <c r="Q2">
-        <v>4785.488917563363</v>
+        <v>40.9148242514995</v>
       </c>
       <c r="R2">
-        <v>4785.488917563363</v>
+        <v>163.659297005998</v>
       </c>
       <c r="S2">
-        <v>0.1915145578966105</v>
+        <v>0.001399923282270195</v>
       </c>
       <c r="T2">
-        <v>0.1915145578966105</v>
+        <v>0.000783151506665999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,506 +590,506 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.5966156478981</v>
+        <v>61.641409</v>
       </c>
       <c r="H3">
-        <v>61.5966156478981</v>
+        <v>123.282818</v>
       </c>
       <c r="I3">
-        <v>0.4392653446519257</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J3">
-        <v>0.4392653446519257</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>100.503853522837</v>
+        <v>87.41568000000001</v>
       </c>
       <c r="N3">
-        <v>100.503853522837</v>
+        <v>262.24704</v>
       </c>
       <c r="O3">
-        <v>0.5640116839893964</v>
+        <v>0.4422831315003975</v>
       </c>
       <c r="P3">
-        <v>0.5640116839893964</v>
+        <v>0.4427787924735117</v>
       </c>
       <c r="Q3">
-        <v>6190.697236578841</v>
+        <v>5388.425683893121</v>
       </c>
       <c r="R3">
-        <v>6190.697236578841</v>
+        <v>32330.55410335872</v>
       </c>
       <c r="S3">
-        <v>0.2477507867553152</v>
+        <v>0.1843679572786682</v>
       </c>
       <c r="T3">
-        <v>0.2477507867553152</v>
+        <v>0.1547099530585423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.4999368361075</v>
+        <v>61.641409</v>
       </c>
       <c r="H4">
-        <v>11.4999368361075</v>
+        <v>123.282818</v>
       </c>
       <c r="I4">
-        <v>0.08200976083919821</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J4">
-        <v>0.08200976083919821</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>77.6907767939465</v>
+        <v>109.268064</v>
       </c>
       <c r="N4">
-        <v>77.6907767939465</v>
+        <v>327.804192</v>
       </c>
       <c r="O4">
-        <v>0.4359883160106036</v>
+        <v>0.5528461429220232</v>
       </c>
       <c r="P4">
-        <v>0.4359883160106036</v>
+        <v>0.5534657104290488</v>
       </c>
       <c r="Q4">
-        <v>893.4390258785111</v>
+        <v>6735.437423662175</v>
       </c>
       <c r="R4">
-        <v>893.4390258785111</v>
+        <v>40412.62454197305</v>
       </c>
       <c r="S4">
-        <v>0.03575529752471437</v>
+        <v>0.2304567070287022</v>
       </c>
       <c r="T4">
-        <v>0.03575529752471437</v>
+        <v>0.1933847228808126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.4999368361075</v>
+        <v>61.641409</v>
       </c>
       <c r="H5">
-        <v>11.4999368361075</v>
+        <v>123.282818</v>
       </c>
       <c r="I5">
-        <v>0.08200976083919821</v>
+        <v>0.4168550508657654</v>
       </c>
       <c r="J5">
-        <v>0.08200976083919821</v>
+        <v>0.3494068724346085</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>100.503853522837</v>
+        <v>0.298926</v>
       </c>
       <c r="N5">
-        <v>100.503853522837</v>
+        <v>0.896778</v>
       </c>
       <c r="O5">
-        <v>0.5640116839893964</v>
+        <v>0.001512428060582355</v>
       </c>
       <c r="P5">
-        <v>0.5640116839893964</v>
+        <v>0.001514123019107521</v>
       </c>
       <c r="Q5">
-        <v>1155.787967298026</v>
+        <v>18.426219826734</v>
       </c>
       <c r="R5">
-        <v>1155.787967298026</v>
+        <v>110.557318960404</v>
       </c>
       <c r="S5">
-        <v>0.04625446331448384</v>
+        <v>0.0006304632761248686</v>
       </c>
       <c r="T5">
-        <v>0.04625446331448384</v>
+        <v>0.0005290449885876059</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.926204333973038</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H6">
-        <v>0.926204333973038</v>
+        <v>37.053596</v>
       </c>
       <c r="I6">
-        <v>0.006605062010329087</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J6">
-        <v>0.006605062010329087</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>77.6907767939465</v>
+        <v>0.6637555000000001</v>
       </c>
       <c r="N6">
-        <v>77.6907767939465</v>
+        <v>1.327511</v>
       </c>
       <c r="O6">
-        <v>0.4359883160106036</v>
+        <v>0.003358297516997089</v>
       </c>
       <c r="P6">
-        <v>0.4359883160106036</v>
+        <v>0.002241374078332034</v>
       </c>
       <c r="Q6">
-        <v>71.95753417628518</v>
+        <v>8.198176046592668</v>
       </c>
       <c r="R6">
-        <v>71.95753417628518</v>
+        <v>49.18905627955601</v>
       </c>
       <c r="S6">
-        <v>0.00287972986302899</v>
+        <v>0.0002805051159263938</v>
       </c>
       <c r="T6">
-        <v>0.00287972986302899</v>
+        <v>0.0002353821887393362</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.926204333973038</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H7">
-        <v>0.926204333973038</v>
+        <v>37.053596</v>
       </c>
       <c r="I7">
-        <v>0.006605062010329087</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J7">
-        <v>0.006605062010329087</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.503853522837</v>
+        <v>87.41568000000001</v>
       </c>
       <c r="N7">
-        <v>100.503853522837</v>
+        <v>262.24704</v>
       </c>
       <c r="O7">
-        <v>0.5640116839893964</v>
+        <v>0.4422831315003975</v>
       </c>
       <c r="P7">
-        <v>0.5640116839893964</v>
+        <v>0.4427787924735117</v>
       </c>
       <c r="Q7">
-        <v>93.08710471384302</v>
+        <v>1079.68843026176</v>
       </c>
       <c r="R7">
-        <v>93.08710471384302</v>
+        <v>9717.19587235584</v>
       </c>
       <c r="S7">
-        <v>0.003725332147300096</v>
+        <v>0.03694213524736827</v>
       </c>
       <c r="T7">
-        <v>0.003725332147300096</v>
+        <v>0.04649926235308955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.8995717163733</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H8">
-        <v>40.8995717163733</v>
+        <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.2916680450238654</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J8">
-        <v>0.2916680450238654</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>77.6907767939465</v>
+        <v>109.268064</v>
       </c>
       <c r="N8">
-        <v>77.6907767939465</v>
+        <v>327.804192</v>
       </c>
       <c r="O8">
-        <v>0.4359883160106036</v>
+        <v>0.5528461429220232</v>
       </c>
       <c r="P8">
-        <v>0.4359883160106036</v>
+        <v>0.5534657104290488</v>
       </c>
       <c r="Q8">
-        <v>3177.519497184765</v>
+        <v>1349.591566386048</v>
       </c>
       <c r="R8">
-        <v>3177.519497184765</v>
+        <v>12146.32409747443</v>
       </c>
       <c r="S8">
-        <v>0.12716385978406</v>
+        <v>0.04617701994088579</v>
       </c>
       <c r="T8">
-        <v>0.12716385978406</v>
+        <v>0.05812326089267028</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.8995717163733</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H9">
-        <v>40.8995717163733</v>
+        <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.2916680450238654</v>
+        <v>0.0835259873512383</v>
       </c>
       <c r="J9">
-        <v>0.2916680450238654</v>
+        <v>0.1050169139613236</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>100.503853522837</v>
+        <v>0.298926</v>
       </c>
       <c r="N9">
-        <v>100.503853522837</v>
+        <v>0.896778</v>
       </c>
       <c r="O9">
-        <v>0.5640116839893964</v>
+        <v>0.001512428060582355</v>
       </c>
       <c r="P9">
-        <v>0.5640116839893964</v>
+        <v>0.001514123019107521</v>
       </c>
       <c r="Q9">
-        <v>4110.56456492915</v>
+        <v>3.692094412632</v>
       </c>
       <c r="R9">
-        <v>4110.56456492915</v>
+        <v>33.228849713688</v>
       </c>
       <c r="S9">
-        <v>0.1645041852398054</v>
+        <v>0.0001263270470578597</v>
       </c>
       <c r="T9">
-        <v>0.1645041852398054</v>
+        <v>0.0001590085268244741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>25.3041118116474</v>
+        <v>0.556859</v>
       </c>
       <c r="H10">
-        <v>25.3041118116474</v>
+        <v>1.670577</v>
       </c>
       <c r="I10">
-        <v>0.1804517874746817</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J10">
-        <v>0.1804517874746817</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>77.6907767939465</v>
+        <v>0.6637555000000001</v>
       </c>
       <c r="N10">
-        <v>77.6907767939465</v>
+        <v>1.327511</v>
       </c>
       <c r="O10">
-        <v>0.4359883160106036</v>
+        <v>0.003358297516997089</v>
       </c>
       <c r="P10">
-        <v>0.4359883160106036</v>
+        <v>0.002241374078332034</v>
       </c>
       <c r="Q10">
-        <v>1965.896102727763</v>
+        <v>0.3696182239745</v>
       </c>
       <c r="R10">
-        <v>1965.896102727763</v>
+        <v>2.217709343847</v>
       </c>
       <c r="S10">
-        <v>0.07867487094218981</v>
+        <v>1.264669143175651E-05</v>
       </c>
       <c r="T10">
-        <v>0.07867487094218981</v>
+        <v>1.061230523260398E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,49 +1098,917 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>25.3041118116474</v>
+        <v>0.556859</v>
       </c>
       <c r="H11">
-        <v>25.3041118116474</v>
+        <v>1.670577</v>
       </c>
       <c r="I11">
-        <v>0.1804517874746817</v>
+        <v>0.003765804360021349</v>
       </c>
       <c r="J11">
-        <v>0.1804517874746817</v>
+        <v>0.004734731848287171</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>100.503853522837</v>
+        <v>87.41568000000001</v>
       </c>
       <c r="N11">
-        <v>100.503853522837</v>
+        <v>262.24704</v>
       </c>
       <c r="O11">
-        <v>0.5640116839893964</v>
+        <v>0.4422831315003975</v>
       </c>
       <c r="P11">
-        <v>0.5640116839893964</v>
+        <v>0.4427787924735117</v>
       </c>
       <c r="Q11">
-        <v>2543.1607470433</v>
+        <v>48.67820814912</v>
       </c>
       <c r="R11">
-        <v>2543.1607470433</v>
+        <v>438.10387334208</v>
       </c>
       <c r="S11">
-        <v>0.1017769165324919</v>
+        <v>0.001665551744968093</v>
       </c>
       <c r="T11">
-        <v>0.1017769165324919</v>
+        <v>0.002096438850470472</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.556859</v>
+      </c>
+      <c r="H12">
+        <v>1.670577</v>
+      </c>
+      <c r="I12">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J12">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>109.268064</v>
+      </c>
+      <c r="N12">
+        <v>327.804192</v>
+      </c>
+      <c r="O12">
+        <v>0.5528461429220232</v>
+      </c>
+      <c r="P12">
+        <v>0.5534657104290488</v>
+      </c>
+      <c r="Q12">
+        <v>60.846904850976</v>
+      </c>
+      <c r="R12">
+        <v>547.622143658784</v>
+      </c>
+      <c r="S12">
+        <v>0.002081910415436741</v>
+      </c>
+      <c r="T12">
+        <v>0.002620511726103302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.556859</v>
+      </c>
+      <c r="H13">
+        <v>1.670577</v>
+      </c>
+      <c r="I13">
+        <v>0.003765804360021349</v>
+      </c>
+      <c r="J13">
+        <v>0.004734731848287171</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.298926</v>
+      </c>
+      <c r="N13">
+        <v>0.896778</v>
+      </c>
+      <c r="O13">
+        <v>0.001512428060582355</v>
+      </c>
+      <c r="P13">
+        <v>0.001514123019107521</v>
+      </c>
+      <c r="Q13">
+        <v>0.166459633434</v>
+      </c>
+      <c r="R13">
+        <v>1.498136700906</v>
+      </c>
+      <c r="S13">
+        <v>5.695508184759667E-06</v>
+      </c>
+      <c r="T13">
+        <v>7.168966480793105E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.830139</v>
+      </c>
+      <c r="I14">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J14">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.6637555000000001</v>
+      </c>
+      <c r="N14">
+        <v>1.327511</v>
+      </c>
+      <c r="O14">
+        <v>0.003358297516997089</v>
+      </c>
+      <c r="P14">
+        <v>0.002241374078332034</v>
+      </c>
+      <c r="Q14">
+        <v>0.6261734423381666</v>
+      </c>
+      <c r="R14">
+        <v>3.757040654029</v>
+      </c>
+      <c r="S14">
+        <v>2.142486975576698E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.797839843281489E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.830139</v>
+      </c>
+      <c r="I15">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J15">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>87.41568000000001</v>
+      </c>
+      <c r="N15">
+        <v>262.24704</v>
+      </c>
+      <c r="O15">
+        <v>0.4422831315003975</v>
+      </c>
+      <c r="P15">
+        <v>0.4427787924735117</v>
+      </c>
+      <c r="Q15">
+        <v>82.46617505984</v>
+      </c>
+      <c r="R15">
+        <v>742.1955755385601</v>
+      </c>
+      <c r="S15">
+        <v>0.002821625671820127</v>
+      </c>
+      <c r="T15">
+        <v>0.003551595258303958</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.830139</v>
+      </c>
+      <c r="I16">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J16">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>109.268064</v>
+      </c>
+      <c r="N16">
+        <v>327.804192</v>
+      </c>
+      <c r="O16">
+        <v>0.5528461429220232</v>
+      </c>
+      <c r="P16">
+        <v>0.5534657104290488</v>
+      </c>
+      <c r="Q16">
+        <v>103.081269793632</v>
+      </c>
+      <c r="R16">
+        <v>927.7314281426879</v>
+      </c>
+      <c r="S16">
+        <v>0.003526982510374393</v>
+      </c>
+      <c r="T16">
+        <v>0.004439431667024193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9433796666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.830139</v>
+      </c>
+      <c r="I17">
+        <v>0.006379681861815685</v>
+      </c>
+      <c r="J17">
+        <v>0.008021150332118547</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.298926</v>
+      </c>
+      <c r="N17">
+        <v>0.896778</v>
+      </c>
+      <c r="O17">
+        <v>0.001512428060582355</v>
+      </c>
+      <c r="P17">
+        <v>0.001514123019107521</v>
+      </c>
+      <c r="Q17">
+        <v>0.2820007102379999</v>
+      </c>
+      <c r="R17">
+        <v>2.538006392142</v>
+      </c>
+      <c r="S17">
+        <v>9.648809865398327E-06</v>
+      </c>
+      <c r="T17">
+        <v>1.214500835758263E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H18">
+        <v>129.714199</v>
+      </c>
+      <c r="I18">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J18">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.6637555000000001</v>
+      </c>
+      <c r="N18">
+        <v>1.327511</v>
+      </c>
+      <c r="O18">
+        <v>0.003358297516997089</v>
+      </c>
+      <c r="P18">
+        <v>0.002241374078332034</v>
+      </c>
+      <c r="Q18">
+        <v>28.69950433811484</v>
+      </c>
+      <c r="R18">
+        <v>172.197026028689</v>
+      </c>
+      <c r="S18">
+        <v>0.0009819693728995783</v>
+      </c>
+      <c r="T18">
+        <v>0.0008240067191100647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H19">
+        <v>129.714199</v>
+      </c>
+      <c r="I19">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J19">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>87.41568000000001</v>
+      </c>
+      <c r="N19">
+        <v>262.24704</v>
+      </c>
+      <c r="O19">
+        <v>0.4422831315003975</v>
+      </c>
+      <c r="P19">
+        <v>0.4427787924735117</v>
+      </c>
+      <c r="Q19">
+        <v>3779.684970413441</v>
+      </c>
+      <c r="R19">
+        <v>34017.16473372097</v>
+      </c>
+      <c r="S19">
+        <v>0.1293240063113454</v>
+      </c>
+      <c r="T19">
+        <v>0.1627808153956735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H20">
+        <v>129.714199</v>
+      </c>
+      <c r="I20">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J20">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>109.268064</v>
+      </c>
+      <c r="N20">
+        <v>327.804192</v>
+      </c>
+      <c r="O20">
+        <v>0.5528461429220232</v>
+      </c>
+      <c r="P20">
+        <v>0.5534657104290488</v>
+      </c>
+      <c r="Q20">
+        <v>4724.539799346912</v>
+      </c>
+      <c r="R20">
+        <v>42520.85819412221</v>
+      </c>
+      <c r="S20">
+        <v>0.1616527355088296</v>
+      </c>
+      <c r="T20">
+        <v>0.2034731589873423</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>43.23806633333334</v>
+      </c>
+      <c r="H21">
+        <v>129.714199</v>
+      </c>
+      <c r="I21">
+        <v>0.2924009465896376</v>
+      </c>
+      <c r="J21">
+        <v>0.3676346251506875</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.298926</v>
+      </c>
+      <c r="N21">
+        <v>0.896778</v>
+      </c>
+      <c r="O21">
+        <v>0.001512428060582355</v>
+      </c>
+      <c r="P21">
+        <v>0.001514123019107521</v>
+      </c>
+      <c r="Q21">
+        <v>12.924982216758</v>
+      </c>
+      <c r="R21">
+        <v>116.324839950822</v>
+      </c>
+      <c r="S21">
+        <v>0.0004422353965630104</v>
+      </c>
+      <c r="T21">
+        <v>0.0005566440485616207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>29.1416125</v>
+      </c>
+      <c r="H22">
+        <v>58.283225</v>
+      </c>
+      <c r="I22">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J22">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.6637555000000001</v>
+      </c>
+      <c r="N22">
+        <v>1.327511</v>
+      </c>
+      <c r="O22">
+        <v>0.003358297516997089</v>
+      </c>
+      <c r="P22">
+        <v>0.002241374078332034</v>
+      </c>
+      <c r="Q22">
+        <v>19.34290557574375</v>
+      </c>
+      <c r="R22">
+        <v>77.37162230297501</v>
+      </c>
+      <c r="S22">
+        <v>0.0006618281847133985</v>
+      </c>
+      <c r="T22">
+        <v>0.0003702429601512145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>29.1416125</v>
+      </c>
+      <c r="H23">
+        <v>58.283225</v>
+      </c>
+      <c r="I23">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J23">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>87.41568000000001</v>
+      </c>
+      <c r="N23">
+        <v>262.24704</v>
+      </c>
+      <c r="O23">
+        <v>0.4422831315003975</v>
+      </c>
+      <c r="P23">
+        <v>0.4427787924735117</v>
+      </c>
+      <c r="Q23">
+        <v>2547.433872984</v>
+      </c>
+      <c r="R23">
+        <v>15284.603237904</v>
+      </c>
+      <c r="S23">
+        <v>0.08716185524622747</v>
+      </c>
+      <c r="T23">
+        <v>0.07314072755743188</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>29.1416125</v>
+      </c>
+      <c r="H24">
+        <v>58.283225</v>
+      </c>
+      <c r="I24">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J24">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>109.268064</v>
+      </c>
+      <c r="N24">
+        <v>327.804192</v>
+      </c>
+      <c r="O24">
+        <v>0.5528461429220232</v>
+      </c>
+      <c r="P24">
+        <v>0.5534657104290488</v>
+      </c>
+      <c r="Q24">
+        <v>3184.2475797132</v>
+      </c>
+      <c r="R24">
+        <v>19105.4854782792</v>
+      </c>
+      <c r="S24">
+        <v>0.1089507875177945</v>
+      </c>
+      <c r="T24">
+        <v>0.09142462427509607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>29.1416125</v>
+      </c>
+      <c r="H25">
+        <v>58.283225</v>
+      </c>
+      <c r="I25">
+        <v>0.1970725289715218</v>
+      </c>
+      <c r="J25">
+        <v>0.1651857062729746</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.298926</v>
+      </c>
+      <c r="N25">
+        <v>0.896778</v>
+      </c>
+      <c r="O25">
+        <v>0.001512428060582355</v>
+      </c>
+      <c r="P25">
+        <v>0.001514123019107521</v>
+      </c>
+      <c r="Q25">
+        <v>8.711185658174999</v>
+      </c>
+      <c r="R25">
+        <v>52.26711394905</v>
+      </c>
+      <c r="S25">
+        <v>0.0002980580227864587</v>
+      </c>
+      <c r="T25">
+        <v>0.0002501114802954444</v>
       </c>
     </row>
   </sheetData>
